--- a/Dokumentation/00_Projektplanung/Projektplan/TechnischeRisiken.xlsx
+++ b/Dokumentation/00_Projektplanung/Projektplan/TechnischeRisiken.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Janik\OneDrive\Studium\Studienarbeit\SA-Git\Network-Unit-Testing\Dokumentation\00_Projektplanung\Projektplan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git-Stuff\Network-Unit-Testing\Dokumentation\00_Projektplanung\Projektplan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{FA6B8B4E-9A54-457A-A5D6-0931A522076A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C6358251-754E-4E90-B40C-847E872292AC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B481570-66DF-411A-9154-E505172DC0B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Risikotabelle" sheetId="1" r:id="rId1"/>
@@ -95,96 +95,15 @@
     <t>Komplexität</t>
   </si>
   <si>
-    <t>Neue Technologie</t>
-  </si>
-  <si>
     <t>R6</t>
   </si>
   <si>
-    <t>Schnittstelle</t>
-  </si>
-  <si>
-    <t>Probleme mit der Schnittstelle Frontend/Backend</t>
-  </si>
-  <si>
-    <t>Die als Ziel gesetzten Funktionen werden nicht erreicht und wir stehen mit einer halbfertigen Lösung da.</t>
-  </si>
-  <si>
-    <t>Möglichst viel früh im Projekt in freien Zeiträumen sich einarbeiten.</t>
-  </si>
-  <si>
-    <t>Schadensminimierung durch Abgrenzung.</t>
-  </si>
-  <si>
-    <t>Build Server</t>
-  </si>
-  <si>
     <t>Qualität der Software</t>
   </si>
   <si>
-    <t>Deployment</t>
-  </si>
-  <si>
-    <t>Problem beim Einrichten / Warten des Build Servers</t>
-  </si>
-  <si>
-    <t>Die Qualität der Software ist nicht auf dem Stand, den wir uns vorgestellt haben.</t>
-  </si>
-  <si>
-    <t>Das Projekt kann nicht rechtzeitig abgeliefert werden.</t>
-  </si>
-  <si>
-    <t>Früh mit Qualitätstest beginnen, um Probleme möglichst früh zu erkennen.</t>
-  </si>
-  <si>
-    <t>Bestehenden Schaden beheben und keinen neuen Schaden verursachen.</t>
-  </si>
-  <si>
-    <t>Zwischenchecks ausführen um den Fortschritt zu bestimmen.</t>
-  </si>
-  <si>
-    <t>Vorgängig ausprobieren, ob es funktioniert.</t>
-  </si>
-  <si>
-    <t>Einarbeitung der einzelnen Teammitglieder, damit jeder ein Grundverständnis der Bedienung hat</t>
-  </si>
-  <si>
-    <t>Externe Hilfe von erfahrenen Kollegen einholen.</t>
-  </si>
-  <si>
-    <t>Externe Hilfe bei erfahrenen Kollegen, Dozenten des Gebiets einholen.</t>
-  </si>
-  <si>
-    <t>Frühe Planung und Abschätzung der Machbarkeit.</t>
-  </si>
-  <si>
-    <t>Wir wenden zu viel Zeit an, um uns in die neue Technologie Xamarin Forms  einzuarbeiten.</t>
-  </si>
-  <si>
-    <t>Schadensminimierung durch Vereinfachung der betroffenen Stellen. UI Design vereinfachen.</t>
-  </si>
-  <si>
     <t>Frühzeitig beim Betreuer melden und eine Lösung suchen, sobald man merkt dass der Zeitplan nicht eingehalten werden kann. Funktionen weglassen.</t>
   </si>
   <si>
-    <t>Virtueller Server Ausfall</t>
-  </si>
-  <si>
-    <t>Ausfall des virtuellen Servers (somit Redmine, Buildserver und der Testumgebung)</t>
-  </si>
-  <si>
-    <t>Erstellen von Backups.</t>
-  </si>
-  <si>
-    <t>Zurückspielen des Backups auf dem virtuellen Servers.</t>
-  </si>
-  <si>
-    <t>Git-Repository Ausfall</t>
-  </si>
-  <si>
-    <t>Ausfall von hsr Git Repository</t>
-  </si>
-  <si>
     <t>Keine Einflussmöglichkeiten</t>
   </si>
   <si>
@@ -203,31 +122,112 @@
     <t>Keine Abdeckung</t>
   </si>
   <si>
-    <t>Frühzeitige Schnittstellentests durch Prototyp.</t>
-  </si>
-  <si>
     <t>Beschränkung auf Core-Funktionalitäten der Applikation.</t>
   </si>
   <si>
-    <t>Frühe Einarbeitung der Teammitglieder in die Bedienung des Build-Servers.</t>
-  </si>
-  <si>
-    <t>Die Teammitglieder haben sich bereits mit der neuen Technologie vertraut gemacht.</t>
-  </si>
-  <si>
-    <t>Es wurden bereits Qualitätstests am Prototypen durchgeführt.</t>
-  </si>
-  <si>
-    <t>Das Team wird kann sich Hilfe bei verschiedenen externen Personen holen, falls das Deployment nicht wie gewünscht klappt.</t>
-  </si>
-  <si>
-    <t>Sobald der virtuelle Server in Betrieb genommen wird, werden Backups erstellt und im VSTS eingecheckt.</t>
-  </si>
-  <si>
     <t>Networ Unit Testing Server</t>
   </si>
   <si>
     <t>25.02.2020</t>
+  </si>
+  <si>
+    <t>Die als Ziel gesetzten Funktionen können nicht erreicht werden und wir stehen mit einer halbfertigen Lösung da.</t>
+  </si>
+  <si>
+    <t>Frühe Planung und Abschätzung der Machbarkeit. Regelmässige Kontrolle von Soll und Ist -Zustand</t>
+  </si>
+  <si>
+    <t>Schadensminimierung durch Abgrenzung von funktionalen und nichtfunktionalen Bestandteilen der Software.</t>
+  </si>
+  <si>
+    <t>Geringe Erfahrung mit Python</t>
+  </si>
+  <si>
+    <t>Wir wenden zu viel Zeit an, um uns in die Programmiersprache Python einzuarbeiten</t>
+  </si>
+  <si>
+    <t>Ausfall der verwendeten Hardware</t>
+  </si>
+  <si>
+    <t>Computerprobleme, Router funktionieren nicht oder andere Hardwarespezifische probleme</t>
+  </si>
+  <si>
+    <t>Möglichst früh im Projekt in freien Zeiträumen sich einarbeiten.</t>
+  </si>
+  <si>
+    <t>In der Freizeit mit Python-Kursen oder Tutorials nochmals schulen</t>
+  </si>
+  <si>
+    <t>Die Teammitglieder haben sich bereits mit Python eingearbeitet. Es stehen umfangreiche Dokumentationen bereit, um im Fragefall schnell Lösungen zu finden</t>
+  </si>
+  <si>
+    <t>Regelmässige Checks der Geräte auf Funktionalität und Gerätegesundheit</t>
+  </si>
+  <si>
+    <t>Anfordern oder organisieren von Ersatzgeräten.</t>
+  </si>
+  <si>
+    <t>Praktisch nicht möglich. Geringe Mitigation durch Arbeit mit Git und/oder in VM</t>
+  </si>
+  <si>
+    <t>Die Qualität der Software ist nicht auf dem Stand, der vom Projektbetreuer gewünscht ist.</t>
+  </si>
+  <si>
+    <t>Qualitätsmanagement während dem Projetk durchführen</t>
+  </si>
+  <si>
+    <t>Refactoring der nicht zufriedenstellenden Bestandteile</t>
+  </si>
+  <si>
+    <t>Test driven Design. Qualitätsmassnahmen werden eingehalten</t>
+  </si>
+  <si>
+    <t>Probleme mit Schnittstellen</t>
+  </si>
+  <si>
+    <t>Die verwendeten Schnittstellen, z.B. Nornir/Openconnect bereiten probleme oder müssen für die Lösungserarbeitung erweitert werden</t>
+  </si>
+  <si>
+    <t>Gute Abklärung der zu Verwendenden Tools. Prototypen erstellen, der die Grundfunktionalität aufzeigt</t>
+  </si>
+  <si>
+    <t>Allfällige Erweiterungen werden früh erkannt und in der Funktionalität mit eingeplant</t>
+  </si>
+  <si>
+    <t>Probleme beim Parsen</t>
+  </si>
+  <si>
+    <t>Die YAML konfiguration lässt sich nicht wie gedacht in Python einlesen und verwenden</t>
+  </si>
+  <si>
+    <t>Im Prototypen bereits testen</t>
+  </si>
+  <si>
+    <t>Wechseln auf ein anderes Dateiformat z.B. JSON oder XML</t>
+  </si>
+  <si>
+    <t>Frühe Tests mit dem Prototypen ergeben keine Probleme</t>
+  </si>
+  <si>
+    <t>Probleme mit den Rückgabewerten</t>
+  </si>
+  <si>
+    <t>Testen im Prototypen und studium der Dokumentationen der jeweiligen Hardware</t>
+  </si>
+  <si>
+    <t>Rückgabewerte der Hardwar sind ungenau oder in einem nicht verwertbaren Format</t>
+  </si>
+  <si>
+    <t>Bei den Betreuenden Personen um Unterstützng anfragen oder Hardware Austauschen</t>
+  </si>
+  <si>
+    <t>Keine Probleme mit dem Prototypen festgestellt.</t>
+  </si>
+  <si>
+    <t>Probleme mit der Erstellung der Logs/Reporting</t>
+  </si>
+  <si>
+    <t>Die Beschreibung der Logs lässt sich schwieriger Implementieren, als zu beginn angenommen</t>
   </si>
 </sst>
 </file>
@@ -347,8 +347,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Prozent" xfId="1" builtinId="5"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -444,7 +444,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -768,10 +768,10 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="7.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.7109375" style="1" customWidth="1"/>
@@ -803,7 +803,7 @@
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="9" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -812,7 +812,7 @@
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="3" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -832,7 +832,7 @@
       <c r="B5" s="17"/>
       <c r="C5" s="2">
         <f>SUM(F8:F16)</f>
-        <v>9.6</v>
+        <v>14.200000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -864,10 +864,10 @@
         <v>10</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="4" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>18</v>
       </c>
@@ -875,56 +875,56 @@
         <v>20</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D8" s="7">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E8" s="8">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="F8" s="7">
         <f t="shared" ref="F8:F15" si="0">D8*E8</f>
-        <v>0.5</v>
+        <v>6.8000000000000007</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="4" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D9" s="7">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E9" s="8">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="F9" s="7">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>3</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="4" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -932,29 +932,29 @@
         <v>12</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D10" s="7">
         <v>10</v>
       </c>
       <c r="E10" s="8">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F10" s="7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -962,29 +962,29 @@
         <v>13</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="D11" s="7">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E11" s="8">
         <v>0.1</v>
       </c>
       <c r="F11" s="7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
@@ -992,86 +992,86 @@
         <v>14</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="D12" s="7">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E12" s="8">
-        <v>0.25</v>
+        <v>0.05</v>
       </c>
       <c r="F12" s="7">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0.8</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="D13" s="7">
         <v>5</v>
       </c>
       <c r="E13" s="8">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="D14" s="13">
         <v>10</v>
       </c>
       <c r="E14" s="14">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F14" s="13">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="I14" s="11" t="s">
         <v>63</v>
@@ -1079,32 +1079,32 @@
     </row>
     <row r="15" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="D15" s="13">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E15" s="14">
         <v>0.05</v>
       </c>
       <c r="F15" s="13">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1123,13 +1123,13 @@
       </c>
       <c r="B17" s="16"/>
       <c r="D17" s="12">
-        <f>SUM(D8:D13)</f>
-        <v>60</v>
+        <f>SUM(D8:D15)</f>
+        <v>121</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="12">
-        <f>SUM(F8:F13)</f>
-        <v>8.5</v>
+        <f>SUM(F8:F15)</f>
+        <v>14.200000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Dokumentation/00_Projektplanung/Projektplan/TechnischeRisiken.xlsx
+++ b/Dokumentation/00_Projektplanung/Projektplan/TechnischeRisiken.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git-Stuff\Network-Unit-Testing\Dokumentation\00_Projektplanung\Projektplan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Janik\OneDrive\Studium\Studienarbeit\SA-Git\Network-Unit-Testing\Dokumentation\00_Projektplanung\Projektplan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B481570-66DF-411A-9154-E505172DC0B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{7B481570-66DF-411A-9154-E505172DC0B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DF9C1EA7-23F9-428A-82A8-16E6C39EEB1A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Risikotabelle" sheetId="1" r:id="rId1"/>
@@ -347,8 +347,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Prozent" xfId="1" builtinId="5"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -363,88 +363,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>784411</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>145675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>313765</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Textfeld 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1367117" y="3798793"/>
-          <a:ext cx="4437530" cy="997325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="de-CH" sz="1400"/>
-            <a:t>Es geht hierbei nur um die Beschreibung der technischen</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-CH" sz="1400" baseline="0"/>
-            <a:t> Risiken des Projektes, d.h. nur projektspezifische Risiken. Allgemeine Risiken wie Hardware Ausfall, Ausfall Teammitglied, usw. sollen NICHT beschrieben werden.</a:t>
-          </a:r>
-          <a:endParaRPr lang="de-CH" sz="1400"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -767,11 +687,11 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="7" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.7109375" style="1" customWidth="1"/>
@@ -867,7 +787,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>18</v>
       </c>
@@ -1144,6 +1064,5 @@
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Dokumentation/00_Projektplanung/Projektplan/TechnischeRisiken.xlsx
+++ b/Dokumentation/00_Projektplanung/Projektplan/TechnischeRisiken.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Janik\OneDrive\Studium\Studienarbeit\SA-Git\Network-Unit-Testing\Dokumentation\00_Projektplanung\Projektplan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{7B481570-66DF-411A-9154-E505172DC0B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DF9C1EA7-23F9-428A-82A8-16E6C39EEB1A}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{7B481570-66DF-411A-9154-E505172DC0B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{31E8590A-C6A0-49B7-98EE-C07E64AA4D9C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -131,9 +131,6 @@
     <t>25.02.2020</t>
   </si>
   <si>
-    <t>Die als Ziel gesetzten Funktionen können nicht erreicht werden und wir stehen mit einer halbfertigen Lösung da.</t>
-  </si>
-  <si>
     <t>Frühe Planung und Abschätzung der Machbarkeit. Regelmässige Kontrolle von Soll und Ist -Zustand</t>
   </si>
   <si>
@@ -228,6 +225,9 @@
   </si>
   <si>
     <t>Die Beschreibung der Logs lässt sich schwieriger Implementieren, als zu beginn angenommen</t>
+  </si>
+  <si>
+    <t>Die als Ziel gesetzten Funktionen sind zu komplex und es müssen wesentliche Funktionalitäten weggelassen werden.</t>
   </si>
 </sst>
 </file>
@@ -687,8 +687,8 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,7 +752,7 @@
       <c r="B5" s="17"/>
       <c r="C5" s="2">
         <f>SUM(F8:F16)</f>
-        <v>14.200000000000001</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -795,23 +795,23 @@
         <v>20</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="D8" s="7">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E8" s="8">
         <v>0.2</v>
       </c>
       <c r="F8" s="7">
         <f t="shared" ref="F8:F15" si="0">D8*E8</f>
-        <v>6.8000000000000007</v>
+        <v>8</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="I8" s="11" t="s">
         <v>30</v>
@@ -822,10 +822,10 @@
         <v>11</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="D9" s="7">
         <v>20</v>
@@ -838,13 +838,13 @@
         <v>3</v>
       </c>
       <c r="G9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="I9" s="11" t="s">
         <v>41</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="4" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -852,10 +852,10 @@
         <v>12</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="D10" s="7">
         <v>10</v>
@@ -868,13 +868,13 @@
         <v>0.5</v>
       </c>
       <c r="G10" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="I10" s="11" t="s">
         <v>44</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -885,7 +885,7 @@
         <v>22</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11" s="7">
         <v>16</v>
@@ -898,13 +898,13 @@
         <v>1.6</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="I11" s="11" t="s">
         <v>48</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
@@ -912,10 +912,10 @@
         <v>14</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="D12" s="7">
         <v>16</v>
@@ -928,13 +928,13 @@
         <v>0.8</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H12" s="11" t="s">
         <v>23</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -942,10 +942,10 @@
         <v>21</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="D13" s="7">
         <v>5</v>
@@ -958,13 +958,13 @@
         <v>0.5</v>
       </c>
       <c r="G13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="I13" s="11" t="s">
         <v>57</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -972,10 +972,10 @@
         <v>26</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="13">
         <v>10</v>
@@ -988,13 +988,13 @@
         <v>0.5</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H14" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="I14" s="11" t="s">
         <v>62</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -1002,10 +1002,10 @@
         <v>27</v>
       </c>
       <c r="B15" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="13" t="s">
         <v>64</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>65</v>
       </c>
       <c r="D15" s="13">
         <v>10</v>
@@ -1044,12 +1044,12 @@
       <c r="B17" s="16"/>
       <c r="D17" s="12">
         <f>SUM(D8:D15)</f>
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="12">
         <f>SUM(F8:F15)</f>
-        <v>14.200000000000001</v>
+        <v>15.4</v>
       </c>
     </row>
   </sheetData>

--- a/Dokumentation/00_Projektplanung/Projektplan/TechnischeRisiken.xlsx
+++ b/Dokumentation/00_Projektplanung/Projektplan/TechnischeRisiken.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Janik\OneDrive\Studium\Studienarbeit\SA-Git\Network-Unit-Testing\Dokumentation\00_Projektplanung\Projektplan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git-Stuff\Network-Unit-Testing\Dokumentation\00_Projektplanung\Projektplan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{7B481570-66DF-411A-9154-E505172DC0B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{31E8590A-C6A0-49B7-98EE-C07E64AA4D9C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD0AEA6-1C79-4452-BE38-338962177743}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Risikotabelle" sheetId="1" r:id="rId1"/>
+    <sheet name="Stand Analyse 1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="71">
   <si>
     <t>Risikomanagement</t>
   </si>
@@ -228,6 +229,21 @@
   </si>
   <si>
     <t>Die als Ziel gesetzten Funktionen sind zu komplex und es müssen wesentliche Funktionalitäten weggelassen werden.</t>
+  </si>
+  <si>
+    <t>R9</t>
+  </si>
+  <si>
+    <t>Requirements nicht verstanden</t>
+  </si>
+  <si>
+    <t>Die Arbeit entspricht nicht den vom Kunden gewünschten Anforderungen</t>
+  </si>
+  <si>
+    <t>Mittels Workshop und Requirements erfassung Risiko minimieren</t>
+  </si>
+  <si>
+    <t>Ist bereits eingetreten und hat 16 Stunden Aufwand gekostet</t>
   </si>
 </sst>
 </file>
@@ -265,12 +281,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -286,7 +308,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -339,16 +361,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Prozent" xfId="1" builtinId="5"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -364,7 +401,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -684,14 +721,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="7.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.7109375" style="1" customWidth="1"/>
@@ -702,63 +739,64 @@
     <col min="7" max="7" width="26" style="1" customWidth="1"/>
     <col min="8" max="8" width="26.140625" style="1" customWidth="1"/>
     <col min="9" max="9" width="30.140625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="7.28515625" style="1"/>
+    <col min="10" max="10" width="43.140625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="7.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="17"/>
+      <c r="B3" s="20"/>
       <c r="C3" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17" t="s">
+      <c r="B4" s="20"/>
+      <c r="C4" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="17"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="D4" s="20"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="17"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="2">
         <f>SUM(F8:F16)</f>
-        <v>15.4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="6"/>
     </row>
-    <row r="7" spans="1:9" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
@@ -787,7 +825,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>18</v>
       </c>
@@ -804,7 +842,7 @@
         <v>0.2</v>
       </c>
       <c r="F8" s="7">
-        <f t="shared" ref="F8:F15" si="0">D8*E8</f>
+        <f t="shared" ref="F8:F16" si="0">D8*E8</f>
         <v>8</v>
       </c>
       <c r="G8" s="7" t="s">
@@ -817,7 +855,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="4" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="4" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>11</v>
       </c>
@@ -847,7 +885,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="4" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" s="4" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>12</v>
       </c>
@@ -877,7 +915,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>13</v>
       </c>
@@ -907,7 +945,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>14</v>
       </c>
@@ -937,7 +975,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>21</v>
       </c>
@@ -967,7 +1005,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>26</v>
       </c>
@@ -997,7 +1035,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>27</v>
       </c>
@@ -1027,29 +1065,52 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
+    <row r="16" spans="1:10" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="7">
+        <v>16</v>
+      </c>
+      <c r="E16" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F16" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16" s="24" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="17" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="16"/>
+      <c r="B17" s="19"/>
       <c r="D17" s="12">
-        <f>SUM(D8:D15)</f>
-        <v>127</v>
+        <f>SUM(D8:D16)</f>
+        <v>143</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="12">
-        <f>SUM(F8:F15)</f>
-        <v>15.4</v>
+        <f>SUM(F8:F16)</f>
+        <v>23.4</v>
       </c>
     </row>
   </sheetData>
@@ -1065,4 +1126,387 @@
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE5BB8E9-85B9-40A0-BBB2-9EB8FC58D2A5}">
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="7.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.7109375" style="17" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" style="17" customWidth="1"/>
+    <col min="3" max="3" width="34.5703125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="17" customWidth="1"/>
+    <col min="5" max="5" width="13" style="17" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="17" customWidth="1"/>
+    <col min="7" max="7" width="26" style="17" customWidth="1"/>
+    <col min="8" max="8" width="26.140625" style="17" customWidth="1"/>
+    <col min="9" max="9" width="30.140625" style="17" customWidth="1"/>
+    <col min="10" max="16384" width="7.28515625" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="20"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="C5" s="18">
+        <f>SUM(F8:F16)</f>
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C6" s="18"/>
+    </row>
+    <row r="7" spans="1:9" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="7">
+        <v>40</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="F8" s="7">
+        <f t="shared" ref="F8:F15" si="0">D8*E8</f>
+        <v>8</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="4" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="7">
+        <v>20</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="F9" s="7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="4" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="7">
+        <v>10</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="F10" s="7">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="7">
+        <v>16</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="F11" s="7">
+        <f t="shared" si="0"/>
+        <v>1.6</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="7">
+        <v>16</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="F12" s="7">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="7">
+        <v>5</v>
+      </c>
+      <c r="E13" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="F13" s="7">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="13">
+        <v>10</v>
+      </c>
+      <c r="E14" s="14">
+        <v>0.05</v>
+      </c>
+      <c r="F14" s="13">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="13">
+        <v>10</v>
+      </c>
+      <c r="E15" s="14">
+        <v>0.05</v>
+      </c>
+      <c r="F15" s="13">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="19"/>
+      <c r="D17" s="16">
+        <f>SUM(D8:D15)</f>
+        <v>127</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="16">
+        <f>SUM(F8:F15)</f>
+        <v>15.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A5:B5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Dokumentation/00_Projektplanung/Projektplan/TechnischeRisiken.xlsx
+++ b/Dokumentation/00_Projektplanung/Projektplan/TechnischeRisiken.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git-Stuff\Network-Unit-Testing\Dokumentation\00_Projektplanung\Projektplan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD0AEA6-1C79-4452-BE38-338962177743}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B52E97-5635-44D3-A2CE-61EF37B881C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Risikotabelle" sheetId="1" r:id="rId1"/>
-    <sheet name="Stand Analyse 1" sheetId="2" r:id="rId2"/>
+    <sheet name="Stand Design 3" sheetId="3" r:id="rId2"/>
+    <sheet name="Stand Analyse 1" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="71">
   <si>
     <t>Risikomanagement</t>
   </si>
@@ -308,7 +309,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -370,17 +371,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -724,8 +734,8 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
+      <pane ySplit="7" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -744,53 +754,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="22"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="20"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20" t="s">
+      <c r="B4" s="25"/>
+      <c r="C4" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="20"/>
+      <c r="D4" s="25"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="20"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="2">
         <f>SUM(F8:F16)</f>
-        <v>23.4</v>
+        <v>10.799999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -839,11 +849,11 @@
         <v>40</v>
       </c>
       <c r="E8" s="8">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="F8" s="7">
         <f t="shared" ref="F8:F16" si="0">D8*E8</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>33</v>
@@ -869,11 +879,11 @@
         <v>20</v>
       </c>
       <c r="E9" s="8">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="F9" s="7">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>39</v>
@@ -929,11 +939,11 @@
         <v>16</v>
       </c>
       <c r="E11" s="8">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="F11" s="7">
         <f t="shared" si="0"/>
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>46</v>
@@ -1079,11 +1089,11 @@
         <v>16</v>
       </c>
       <c r="E16" s="8">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="F16" s="7">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>1.6</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>69</v>
@@ -1091,18 +1101,18 @@
       <c r="H16" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="I16" s="23" t="s">
+      <c r="I16" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="J16" s="24" t="s">
+      <c r="J16" s="23" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="19"/>
+      <c r="B17" s="24"/>
       <c r="D17" s="12">
         <f>SUM(D8:D16)</f>
         <v>143</v>
@@ -1110,7 +1120,7 @@
       <c r="E17" s="10"/>
       <c r="F17" s="12">
         <f>SUM(F8:F16)</f>
-        <v>23.4</v>
+        <v>10.799999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1129,6 +1139,413 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6054BF9-E61D-4588-974F-A1A1B5C25B1A}">
+  <dimension ref="A1:J17"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="7.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.7109375" style="20" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" style="20" customWidth="1"/>
+    <col min="3" max="3" width="34.5703125" style="20" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="20" customWidth="1"/>
+    <col min="5" max="5" width="13" style="20" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="20" customWidth="1"/>
+    <col min="7" max="7" width="26" style="20" customWidth="1"/>
+    <col min="8" max="8" width="26.140625" style="20" customWidth="1"/>
+    <col min="9" max="9" width="30.140625" style="20" customWidth="1"/>
+    <col min="10" max="10" width="43.140625" style="20" customWidth="1"/>
+    <col min="11" max="16384" width="7.28515625" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="25"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="25"/>
+      <c r="C5" s="21">
+        <f>SUM(F8:F16)</f>
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C6" s="21"/>
+    </row>
+    <row r="7" spans="1:10" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="7">
+        <v>40</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="F8" s="7">
+        <f t="shared" ref="F8:F16" si="0">D8*E8</f>
+        <v>8</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="4" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="7">
+        <v>20</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="F9" s="7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="4" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="7">
+        <v>10</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="F10" s="7">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="7">
+        <v>16</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="F11" s="7">
+        <f t="shared" si="0"/>
+        <v>1.6</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="7">
+        <v>16</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="F12" s="7">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="7">
+        <v>5</v>
+      </c>
+      <c r="E13" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="F13" s="7">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="13">
+        <v>10</v>
+      </c>
+      <c r="E14" s="14">
+        <v>0.05</v>
+      </c>
+      <c r="F14" s="13">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="13">
+        <v>10</v>
+      </c>
+      <c r="E15" s="14">
+        <v>0.05</v>
+      </c>
+      <c r="F15" s="13">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="7">
+        <v>16</v>
+      </c>
+      <c r="E16" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F16" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16" s="23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="24"/>
+      <c r="D17" s="19">
+        <f>SUM(D8:D16)</f>
+        <v>143</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="19">
+        <f>SUM(F8:F16)</f>
+        <v>23.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A5:B5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE5BB8E9-85B9-40A0-BBB2-9EB8FC58D2A5}">
   <dimension ref="A1:I17"/>
   <sheetViews>
@@ -1151,50 +1568,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="22"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="17" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="20"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20" t="s">
+      <c r="B4" s="25"/>
+      <c r="C4" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="20"/>
+      <c r="D4" s="25"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="20"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="18">
         <f>SUM(F8:F16)</f>
         <v>15.4</v>
@@ -1483,10 +1900,10 @@
       <c r="H16" s="7"/>
     </row>
     <row r="17" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="19"/>
+      <c r="B17" s="24"/>
       <c r="D17" s="16">
         <f>SUM(D8:D15)</f>
         <v>127</v>
